--- a/planning_Gabriel_Strano_TPI_2016_fait.xlsx
+++ b/planning_Gabriel_Strano_TPI_2016_fait.xlsx
@@ -45,9 +45,6 @@
     <t>méthodes liées à la communication</t>
   </si>
   <si>
-    <t>Application dit Serveur</t>
-  </si>
-  <si>
     <t>Tests + Rapport de tests</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>si doc terminée</t>
+  </si>
+  <si>
+    <t>Application dite "Serveur"</t>
   </si>
 </sst>
 </file>
@@ -240,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -426,6 +413,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -454,26 +454,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,28 +482,28 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +811,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -905,7 +905,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="2"/>
@@ -914,7 +914,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="2"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1013,14 +1013,14 @@
       <c r="K8" s="18"/>
       <c r="L8" s="19"/>
       <c r="M8" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="26"/>
       <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1035,11 +1035,11 @@
       <c r="L9" s="19"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -1104,6 +1104,10 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LTPI 2016&amp;CGabriel Strano</oddHeader>
+    <oddFooter>&amp;L&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
